--- a/data/trans_bre/P24_8_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_8_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,3</t>
+          <t>12,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,72</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>12,42</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>270,94%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>104,94%</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>290,8%</t>
+          <t>270,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>272,8%</t>
+          <t>114,95%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>154,41%</t>
+          <t>322,59%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>275,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>66,52%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>154,43%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>112,43%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 19,54</t>
+          <t>6,15; 19,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 12,74</t>
+          <t>0,27; 12,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,18; 13,14</t>
+          <t>3,67; 13,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 16,73</t>
+          <t>3,84; 16,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 21,06</t>
+          <t>-3,98; 13,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,28; 770,82</t>
+          <t>3,62; 22,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 453,64</t>
+          <t>1,38; 20,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,58; 1564,62</t>
+          <t>72,6; 838,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,16; 1269,16</t>
+          <t>-12,77; 442,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,57; 425,37</t>
+          <t>49,12; 1713,96</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>30,6; 1354,56</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-30,4; 320,97</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14,7; 470,88</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 350,28</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>12,05</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>9,02</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>31,71%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>98,98%</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>135,34%</t>
+          <t>31,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>83,05%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>138,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36,06%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>208,48%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>96,91%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>97,78%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 9,06</t>
+          <t>-7,22; 9,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 14,32</t>
+          <t>-2,56; 13,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 12,89</t>
+          <t>1,91; 12,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 10,26</t>
+          <t>-6,8; 10,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 17,17</t>
+          <t>5,0; 19,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,55; 195,44</t>
+          <t>0,65; 17,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,24; 365,11</t>
+          <t>-1,56; 17,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 395,83</t>
+          <t>-46,8; 216,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,12; 160,63</t>
+          <t>-33,12; 310,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 322,82</t>
+          <t>18,0; 414,02</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-44,3; 142,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>46,62; 610,63</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 327,18</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-27,38; 355,52</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>7,05</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,14</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>124,88%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>116,87%</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>204,6%</t>
+          <t>124,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>106,84%</t>
+          <t>104,76%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>205,21%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>112,37%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>131,61%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>120,56%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 13,2</t>
+          <t>2,25; 13,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 11,45</t>
+          <t>1,31; 11,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 10,71</t>
+          <t>3,68; 11,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 10,05</t>
+          <t>2,05; 10,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 6,7</t>
+          <t>2,64; 11,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,53; 307,28</t>
+          <t>-4,81; 6,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 338,37</t>
+          <t>3,4; 16,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>62,49; 500,28</t>
+          <t>10,03; 311,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,79; 276,71</t>
+          <t>9,24; 289,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-34,1; 87,97</t>
+          <t>60,51; 524,1</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22,1; 279,67</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>28,82; 345,93</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-37,54; 85,01</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>27,26; 296,05</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,38</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>12,51</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,2</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>157,69%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>193,17%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>160,7%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>147,83%</t>
+          <t>196,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>157,8%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>147,26%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>394,67%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>74,17%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,13</t>
+          <t>3,37; 12,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 11,97</t>
+          <t>3,08; 12,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 12,67</t>
+          <t>4,25; 12,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 12,48</t>
+          <t>4,17; 12,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 12,98</t>
+          <t>7,28; 17,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,6; 393,9</t>
+          <t>0,28; 12,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,26; 542,93</t>
+          <t>-7,42; 6,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,96; 372,98</t>
+          <t>46,73; 420,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,48; 314,58</t>
+          <t>43,57; 577,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 189,93</t>
+          <t>57,28; 342,37</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48,27; 312,52</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>127,03; 1035,09</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 192,82</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-39,13; 64,99</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>321,95%</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>441,21%</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>321,84%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>58,32%</t>
+          <t>431,17%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>51,08%</t>
+          <t>68,94%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>58,4%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>75,68%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>51,11%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>33,11%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 13,3</t>
+          <t>4,41; 13,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,57; 15,06</t>
+          <t>5,18; 15,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 9,92</t>
+          <t>-0,55; 9,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 9,24</t>
+          <t>-3,38; 9,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 14,76</t>
+          <t>-0,31; 13,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,7; 998,56</t>
+          <t>-0,04; 14,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>106,55; 1589,91</t>
+          <t>-2,49; 13,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 203,89</t>
+          <t>75,84; 887,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 273,05</t>
+          <t>102,36; 1688,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 167,66</t>
+          <t>-10,59; 195,37</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-39,54; 264,55</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,7; 225,97</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 146,21</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-15,35; 114,51</t>
         </is>
       </c>
     </row>
@@ -1241,47 +1473,67 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>4,53</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,56</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>8,47</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>8,57</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>331,17%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>323,63%</t>
+          <t>16,45</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>179,21%</t>
+          <t>330,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>354,53%</t>
+          <t>307,72%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>286,28%</t>
+          <t>184,5%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>403,51%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>156,17%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>285,97%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>233,38%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 9,58</t>
+          <t>2,86; 10,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 9,09</t>
+          <t>1,58; 9,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 8,42</t>
+          <t>0,72; 9,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,88; 13,45</t>
+          <t>4,78; 13,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,45; 15,91</t>
+          <t>1,27; 15,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>55,01; 1624,83</t>
+          <t>2,53; 15,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,35; 2054,47</t>
+          <t>8,07; 24,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 920,04</t>
+          <t>58,93; 1606,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>46,12; 1735,9</t>
+          <t>21,93; 1568,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,21; 1741,8</t>
+          <t>-4,45; 848,19</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>78,82; 2080,34</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 620,99</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>12,9; 1409,33</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>69,29; 620,8</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>6,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>8,75</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>6,97</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>144,55%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>151,89%</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>148,91%</t>
+          <t>144,46%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>114,25%</t>
+          <t>146,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>77,45%</t>
+          <t>153,1%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>117,66%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>148,72%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>77,43%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>82,84%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,26</t>
+          <t>4,84; 9,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,57</t>
+          <t>4,21; 8,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,37</t>
+          <t>4,65; 8,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,91</t>
+          <t>4,49; 9,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,23; 9,94</t>
+          <t>6,07; 11,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>63,16; 234,99</t>
+          <t>3,96; 10,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,83; 253,34</t>
+          <t>5,78; 12,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>81,32; 227,79</t>
+          <t>62,43; 249,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49,7; 191,28</t>
+          <t>72,49; 238,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>41,13; 131,12</t>
+          <t>89,85; 238,37</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>56,86; 193,33</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>82,73; 232,22</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>38,7; 127,32</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>46,81; 139,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
